--- a/Multiknapsack/results/random_recourse/multicut/M20_N20_T10_a25_ccg.xlsx
+++ b/Multiknapsack/results/random_recourse/multicut/M20_N20_T10_a25_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-30.267015493145152</v>
+        <v>-30.267016822043868</v>
       </c>
       <c r="C2">
-        <v>1014.804930632</v>
+        <v>3611.814923848</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -503,7 +503,7 @@
         <v>-28.3858468837114</v>
       </c>
       <c r="C3">
-        <v>1006.301288557</v>
+        <v>3601.523002471</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-31.006620916854338</v>
+        <v>-31.006622064776675</v>
       </c>
       <c r="C4">
-        <v>1005.810866506</v>
+        <v>3601.283286429</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-31.010825608664256</v>
+        <v>-31.0108266848475</v>
       </c>
       <c r="C5">
-        <v>1004.987708278</v>
+        <v>3601.327764096</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-31.83050969314621</v>
+        <v>-31.830506447282865</v>
       </c>
       <c r="C6">
-        <v>1001.56476254</v>
+        <v>1303.735855841</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -619,7 +619,7 @@
         <v>-28.160587918848215</v>
       </c>
       <c r="C7">
-        <v>941.777073749</v>
+        <v>1000.86646711</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -648,7 +648,7 @@
         <v>-29.551045730757377</v>
       </c>
       <c r="C8">
-        <v>1006.905337993</v>
+        <v>3601.837993946</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -677,7 +677,7 @@
         <v>-31.870991775615195</v>
       </c>
       <c r="C9">
-        <v>599.924144096</v>
+        <v>572.156574967</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -706,7 +706,7 @@
         <v>-30.60129946289944</v>
       </c>
       <c r="C10">
-        <v>1005.754240431</v>
+        <v>1484.74917954</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-27.044143631743335</v>
+        <v>-27.044144764973094</v>
       </c>
       <c r="C11">
-        <v>1005.014407902</v>
+        <v>2800.724604342</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -797,7 +797,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.06838548181298829</v>
+        <v>0.03782672150146484</v>
       </c>
       <c r="E2">
         <v>30.54399</v>
@@ -811,10 +811,10 @@
         <v>-30.60129946289944</v>
       </c>
       <c r="C3">
-        <v>0.22633187174419483</v>
+        <v>0.09970862219567872</v>
       </c>
       <c r="D3">
-        <v>1000.4009871222077</v>
+        <v>1483.7864928019217</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,7 +861,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.05284845732666016</v>
+        <v>0.034257418607543944</v>
       </c>
       <c r="E2">
         <v>30.08334</v>
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-27.044143631743335</v>
+        <v>-27.044144764973094</v>
       </c>
       <c r="C3">
-        <v>0.19060227926196674</v>
+        <v>0.09996721744475434</v>
       </c>
       <c r="D3">
-        <v>1000.1983718781185</v>
+        <v>2799.8714656246943</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.9671926617515869</v>
+        <v>1.0322180925065918</v>
       </c>
       <c r="E2">
         <v>30.15603</v>
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-30.267015493145152</v>
+        <v>-30.267016822043868</v>
       </c>
       <c r="C3">
-        <v>1.5588524861205042</v>
+        <v>1.2681208485534894</v>
       </c>
       <c r="D3">
-        <v>1000.2223710250415</v>
+        <v>3600.6200165705955</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.04602189225891113</v>
+        <v>0.0654742297331543</v>
       </c>
       <c r="E2">
         <v>31.50958</v>
@@ -1003,10 +1003,10 @@
         <v>-28.3858468837114</v>
       </c>
       <c r="C3">
-        <v>2.2997203703615736</v>
+        <v>1.905407870019413</v>
       </c>
       <c r="D3">
-        <v>1000.2345123454104</v>
+        <v>3600.3466336505994</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,7 +1053,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.07962186007739258</v>
+        <v>0.03894149864355469</v>
       </c>
       <c r="E2">
         <v>30.43484</v>
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-31.006620916854338</v>
+        <v>-31.006622064776675</v>
       </c>
       <c r="C3">
-        <v>0.6789130189712018</v>
+        <v>0.5493794992070932</v>
       </c>
       <c r="D3">
-        <v>1000.5271424030472</v>
+        <v>3600.1974995702535</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,7 +1117,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.05737965621081543</v>
+        <v>0.04166002987634277</v>
       </c>
       <c r="E2">
         <v>26.54123</v>
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-31.010825608664256</v>
+        <v>-31.0108266848475</v>
       </c>
       <c r="C3">
-        <v>0.3269145811374197</v>
+        <v>0.18912306935945813</v>
       </c>
       <c r="D3">
-        <v>1000.3385502987533</v>
+        <v>3600.299697124114</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.04477050962060547</v>
+        <v>0.051766125625</v>
       </c>
       <c r="E2">
         <v>30.94035</v>
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-31.83050969314621</v>
+        <v>-31.830506447282865</v>
       </c>
       <c r="C3">
-        <v>3.446807035315849</v>
+        <v>0.09778004048282354</v>
       </c>
       <c r="D3">
-        <v>1000.1850388460251</v>
+        <v>1302.657431338601</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,7 +1245,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>4.732377908179077</v>
+        <v>0.037284736885009766</v>
       </c>
       <c r="E2">
         <v>27.89847</v>
@@ -1262,7 +1262,7 @@
         <v>0.09723025565168739</v>
       </c>
       <c r="D3">
-        <v>936.0720041197926</v>
+        <v>999.8857468498729</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,7 +1309,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.05330075715283203</v>
+        <v>0.07405211405004883</v>
       </c>
       <c r="E2">
         <v>28.64314</v>
@@ -1323,10 +1323,10 @@
         <v>-29.551045730757377</v>
       </c>
       <c r="C3">
-        <v>0.6380584251917978</v>
+        <v>0.4459036200744681</v>
       </c>
       <c r="D3">
-        <v>1000.1667374396517</v>
+        <v>3600.52256010946</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,7 +1373,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.05465002966210938</v>
+        <v>0.04675149383154297</v>
       </c>
       <c r="E2">
         <v>30.64447</v>
@@ -1390,7 +1390,7 @@
         <v>0.09811174413829483</v>
       </c>
       <c r="D3">
-        <v>593.9548568601749</v>
+        <v>570.9974128034459</v>
       </c>
       <c r="E3">
         <v>0.0</v>
